--- a/biology/Zoologie/Ituglanis/Ituglanis.xlsx
+++ b/biology/Zoologie/Ituglanis/Ituglanis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ituglanis est un genre de poissons d'eau douce de la famille des Trichomycteridae originaires d'Amérique du Sud. Leur diversité semble la plus importante dans le bassin de l'Amazone[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ituglanis est un genre de poissons d'eau douce de la famille des Trichomycteridae originaires d'Amérique du Sud. Leur diversité semble la plus importante dans le bassin de l'Amazone.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (27 janvier 2024)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (27 janvier 2024) :
 Ituglanis agreste Lima, Neves &amp; Campos-Paiva, 2013
 Ituglanis amazonicus (Steindachner, 1882)
 Ituglanis amphipotamus Mendonça, Oyakawa &amp; Wosiacki, 2018
@@ -571,9 +585,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Ituglanis Costa (d) &amp; Bockmann (d), 1993[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Ituglanis Costa (d) &amp; Bockmann (d), 1993.
 </t>
         </is>
       </c>
@@ -602,9 +618,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Ituglanis, est la combinaison du mot tupi-guarani itu qui signifie « cascade », et qui fait référence à la présence de plusieurs espèces de ce genre dans des torrents, et du suffixe -glanis fréquemment utilisé pour nommer les genres de poissons-chats[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Ituglanis, est la combinaison du mot tupi-guarani itu qui signifie « cascade », et qui fait référence à la présence de plusieurs espèces de ce genre dans des torrents, et du suffixe -glanis fréquemment utilisé pour nommer les genres de poissons-chats.
 </t>
         </is>
       </c>
@@ -633,7 +651,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>W. J. E. M. Costa et F. A. Bockmann, « Un nouveau genre néotropical de la famille des Trichomycteridae (Siluriformes: Loricarioidei) », Revue française d'aquariologie et d'herpétologie, Nancy, vol. 20, no 2,‎ 30 novembre 1993, p. 43-46 (ISSN 0399-1075).</t>
         </is>
